--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="13395" windowHeight="12075"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Расскладка" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,30 +45,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -104,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -138,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -173,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -349,37 +420,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Поз.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,46 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Обозначение</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Объем ед. м3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>СТБ 1437</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ППТ-15-А-Р-2000x620x180</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.22319999999999998</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="27495" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Расскладка" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расскладка" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Поз.</t>
+  </si>
+  <si>
+    <t>Обозначение</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Кол.</t>
+  </si>
+  <si>
+    <t>Объем ед. м3</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>СТБ 1437</t>
+  </si>
+  <si>
+    <t>ППТ-15-А-Р--2000x1000x180</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ППТ-15-А-Р--2000x620x180</t>
+  </si>
+  <si>
+    <t>0.22319999999999998</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,71 +414,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Поз.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Обозначение</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Наименование</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Объем ед. м3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>СТБ 1437</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ППТ-15-А-Р-2000x620x180</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.22319999999999998</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="27495" windowHeight="11700"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Расскладка" sheetId="1" r:id="rId1"/>
@@ -14,50 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Поз.</t>
-  </si>
-  <si>
-    <t>Обозначение</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Кол.</t>
-  </si>
-  <si>
-    <t>Объем ед. м3</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>СТБ 1437</t>
-  </si>
-  <si>
-    <t>ППТ-15-А-Р--2000x1000x180</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ППТ-15-А-Р--2000x620x180</t>
-  </si>
-  <si>
-    <t>0.22319999999999998</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,75 +372,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -1,41 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="11190"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Расскладка" sheetId="1" r:id="rId1"/>
+    <sheet name="Расскладка" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,40 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,22 +420,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Поз.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Кол.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Объем ед. м3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>620x-170x130</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.01369710526058878</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>650x-170x130</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.014365000000000001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1220x-170x130</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.026966052978676047</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>630x-171x130</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.014027312525801715</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>480x-1520x140</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.10209686875354267</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1000x-1520x140</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.21280000000000002</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -1,43 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="11190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Расскладка" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расскладка" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Поз.</t>
+  </si>
+  <si>
+    <t>Обозначение</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Кол.</t>
+  </si>
+  <si>
+    <t>Объем ед. м3</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>СТБ 1437</t>
+  </si>
+  <si>
+    <t>ППТ-15-А-Р 2000x1000x180</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>ППТ-15-А-Р 2000x620x180</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>Примеча-ние</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -46,93 +110,134 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,220 +525,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Поз.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Обозначение</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Наименование</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Кол.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Объем ед. м3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>620x-170x130</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.01369710526058878</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>650x-170x130</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.014365000000000001</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1220x-170x130</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.026966052978676047</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>630x-171x130</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.014027312525801715</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>480x-1520x140</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.10209686875354267</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Эффективный утеплитель</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1000x-1520x140</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.21280000000000002</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt_excel_template.xlsx
+++ b/ppt_excel_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>СТБ 1437</t>
+          <t>Эффективный утеплитель λ ≤ 0,034 Вт/(м·°C),</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ППТ-15-А-Р 2000x1000x140</t>
+          <t>2000x420x140</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -501,25 +501,81 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>СТБ 1437</t>
+          <t>Эффективный утеплитель λ ≤ 0,034 Вт/(м·°C),</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ППТ-15-А-Р 2000x620x140</t>
+          <t>1000x2000x140</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель λ ≤ 0,034 Вт/(м·°C),</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>640x2000x140</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Эффективный утеплитель λ ≤ 0,034 Вт/(м·°C),</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>640x420x140</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
